--- a/diary/2017-2-20(L).xlsx
+++ b/diary/2017-2-20(L).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thumbd12856\Desktop\Daily-Eating\diary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="11835" windowHeight="5370"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>P</t>
   </si>
@@ -47,15 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雞胸肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一堆青菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二頭+三頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +95,21 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,12 +134,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,27 +454,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
@@ -442,50 +498,56 @@
       <c r="D2" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>27.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,74 +560,76 @@
       <c r="D6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>6.82</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>SUM(B2:B11)</f>
-        <v>221.82</v>
-      </c>
-      <c r="C12">
+        <v>267.82</v>
+      </c>
+      <c r="C12" s="1">
         <f>SUM(C2:C11)</f>
         <v>165.7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>SUM(D2:D10)</f>
-        <v>54.6</v>
+        <v>56.000000000000007</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
